--- a/Data/country_data/ETF.xlsx
+++ b/Data/country_data/ETF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canne\Documents\MFE Winter\230O\ETF data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B78D3B-B25C-4925-8A07-6895B9F32482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D087FF78-0E89-4098-BBDE-D7FE2E097C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Ticker</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>VanEck Vectors Egypt Index ETF</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>EIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares MSCI Indonesia ETF </t>
   </si>
 </sst>
 </file>
@@ -584,11 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,55 +746,55 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1">
-        <v>36661</v>
+        <v>40308</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1">
-        <v>44189</v>
+        <v>36661</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
-        <v>35143</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>35143</v>
@@ -793,169 +802,183 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
-        <v>42118</v>
+        <v>35143</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>39987</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1">
-        <v>40451</v>
+        <v>39987</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1">
-        <v>40325</v>
+        <v>40451</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1">
-        <v>41761</v>
+        <v>40325</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1">
-        <v>40493</v>
+        <v>41761</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1">
-        <v>42265</v>
+        <v>40493</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1">
-        <v>37662</v>
+        <v>42265</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
-        <v>36703</v>
+        <v>37662</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
-        <v>39540</v>
+        <v>36703</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1">
-        <v>39538</v>
+        <v>39540</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1">
+        <v>39538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>41761</v>
       </c>
     </row>
